--- a/public/veg.xlsx
+++ b/public/veg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Website\vue-order-ui\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF25003-E1BB-41DC-B948-BA09D52A385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD6806B-67FD-4ACB-B745-A4E5428DE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="4215" windowWidth="22980" windowHeight="11265" activeTab="1" xr2:uid="{97AEE7F5-BD9C-4FF8-9A8E-9803443E80EC}"/>
+    <workbookView xWindow="2985" yWindow="3840" windowWidth="22980" windowHeight="11265" activeTab="1" xr2:uid="{97AEE7F5-BD9C-4FF8-9A8E-9803443E80EC}"/>
   </bookViews>
   <sheets>
     <sheet name="1019" sheetId="1" r:id="rId1"/>
@@ -3766,7 +3766,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -3848,19 +3848,19 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E74" si="0">(B3+C3)/D3*1.4</f>
-        <v>54.599999999999994</v>
+        <v>17.266666666666666</v>
       </c>
       <c r="F3" s="16">
         <f t="shared" ref="F3:F74" si="1">(B3+C3)/D3*1.5</f>
-        <v>58.5</v>
+        <v>18.5</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G66" si="2">F3*0.6</f>
-        <v>35.1</v>
+        <v>11.1</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" ref="H3:H66" si="3">E3*D3</f>
-        <v>1637.9999999999998</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75">
@@ -5411,7 +5411,7 @@
         <v>28.799999999999997</v>
       </c>
       <c r="H58" s="16">
-        <f t="shared" si="3"/>
+        <f>E58*D58</f>
         <v>896</v>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
         <v>22</v>
       </c>
       <c r="B60" s="4">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="C60" s="4">
         <v>60</v>
@@ -5460,19 +5460,19 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>60.199999999999996</v>
       </c>
       <c r="F60" s="16">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>64.5</v>
       </c>
       <c r="G60" s="16">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>38.699999999999996</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="1" customFormat="1" ht="18.75">
